--- a/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 2,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,3; 3,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,97; -2,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 4,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 4,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,77; -5,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 2,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 2,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; -5,19</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,78%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,2; 13,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,73; 16,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,02; -14,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 22,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,67; 18,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,1; -24,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; 12,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,27; 10,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,95; -24,55</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; -0,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,16; -4,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; -13,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; -1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,4; -6,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,67; -17,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; -1,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,85; -6,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,31; -16,22</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,22%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,52; -0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,37; -11,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,48; -38,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,81; -3,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,94; -17,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,79; -46,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; -4,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,74; -16,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,43; -43,84</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 6,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,35; -0,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,93; -9,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,18; 1,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,95; -3,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,42; -7,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,88; 2,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,47; -3,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,3; -10,71</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,92%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,23; 23,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,83; -2,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,04; -32,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,19; 5,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,28; -12,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,32; -28,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,53; 9,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,4; -13,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,65; -35,71</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 0,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,2; -1,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; -10,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,5; -0,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; -3,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,06; -12,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; -0,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; -3,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,56; -12,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,82%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; 2,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,38; -5,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,46; -34,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,56; -1,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,37; -10,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,85; -39,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,96; -2,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,81; -10,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,51; -39,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>-7,49</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -2,81</t>
+          <t>-10,7; -2,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,77; -5,36</t>
+          <t>-11,35; -4,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -5,19</t>
+          <t>-10,22; -4,63</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,33%</t>
+          <t>-30,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,03%</t>
+          <t>-36,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-35,78%</t>
+          <t>-33,8%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,02; -14,65</t>
+          <t>-46,16; -11,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,1; -24,43</t>
+          <t>-46,51; -22,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,95; -24,55</t>
+          <t>-43,34; -21,97</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,11</t>
+          <t>-18,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,42</t>
+          <t>-20,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-18,81</t>
+          <t>-19,63</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -13,61</t>
+          <t>-25,16; -14,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,67; -17,21</t>
+          <t>-26,62; -16,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,31; -16,22</t>
+          <t>-23,35; -16,02</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-45,45%</t>
+          <t>-49,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,71%</t>
+          <t>-53,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,22%</t>
+          <t>-51,38%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,48; -38,02</t>
+          <t>-65,42; -40,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,79; -46,69</t>
+          <t>-64,39; -42,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,43; -43,84</t>
+          <t>-60,35; -43,24</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,23</t>
+          <t>-14,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,21</t>
+          <t>-13,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-14,2</t>
+          <t>-14,02</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,93; -9,57</t>
+          <t>-20,69; -9,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -7,69</t>
+          <t>-18,31; -7,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,3; -10,71</t>
+          <t>-18,15; -10,44</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-47,94%</t>
+          <t>-47,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-42,0%</t>
+          <t>-41,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,92%</t>
+          <t>-44,35%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,04; -32,96</t>
+          <t>-58,43; -31,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,32; -28,52</t>
+          <t>-53,16; -28,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -35,71</t>
+          <t>-52,21; -34,96</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,21</t>
+          <t>-14,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,67</t>
+          <t>-14,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-13,98</t>
+          <t>-14,31</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -10,69</t>
+          <t>-18,36; -10,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,06; -12,15</t>
+          <t>-17,89; -11,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,56; -12,36</t>
+          <t>-16,71; -12,26</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-41,3%</t>
+          <t>-43,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,74%</t>
+          <t>-45,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-43,66%</t>
+          <t>-44,69%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,46; -34,52</t>
+          <t>-56,64; -35,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,85; -39,84</t>
+          <t>-55,26; -36,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,51; -39,68</t>
+          <t>-51,98; -39,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,48</t>
+          <t>-6,08; 2,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 3,08</t>
+          <t>-6,18; 3,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -2,27</t>
+          <t>-11,09; -2,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 4,58</t>
+          <t>-2,73; 4,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,0</t>
+          <t>-4,78; 3,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -4,82</t>
+          <t>-12,12; -4,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 2,49</t>
+          <t>-3,08; 2,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,19</t>
+          <t>-4,12; 2,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -4,63</t>
+          <t>-10,08; -4,87</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 13,01</t>
+          <t>-26,16; 16,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 16,0</t>
+          <t>-25,75; 17,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,16; -11,8</t>
+          <t>-47,04; -10,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 22,21</t>
+          <t>-11,06; 23,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 18,56</t>
+          <t>-19,39; 17,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,51; -22,07</t>
+          <t>-48,52; -23,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 12,1</t>
+          <t>-13,06; 12,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 10,3</t>
+          <t>-17,6; 11,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,34; -21,97</t>
+          <t>-42,68; -23,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -0,02</t>
+          <t>-6,77; 0,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -4,05</t>
+          <t>-10,68; -3,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,16; -14,57</t>
+          <t>-25,06; -14,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; -1,4</t>
+          <t>-9,06; -1,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -6,49</t>
+          <t>-13,21; -6,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,62; -16,2</t>
+          <t>-25,75; -15,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; -1,71</t>
+          <t>-6,76; -1,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -6,19</t>
+          <t>-11,12; -6,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -16,02</t>
+          <t>-23,99; -16,14</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -0,06</t>
+          <t>-17,23; 1,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,37; -11,45</t>
+          <t>-27,05; -9,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,42; -40,44</t>
+          <t>-65,76; -39,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; -3,76</t>
+          <t>-21,69; -5,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,94; -17,36</t>
+          <t>-32,81; -17,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,39; -42,01</t>
+          <t>-65,05; -41,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -4,59</t>
+          <t>-17,13; -4,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,74; -16,76</t>
+          <t>-28,06; -16,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,35; -43,24</t>
+          <t>-61,93; -43,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 6,75</t>
+          <t>-5,87; 7,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -0,64</t>
+          <t>-12,47; -0,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,69; -9,22</t>
+          <t>-20,31; -9,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 1,46</t>
+          <t>-11,27; 1,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,95; -3,85</t>
+          <t>-14,93; -3,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,31; -7,63</t>
+          <t>-18,29; -7,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 2,83</t>
+          <t>-6,98; 2,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,47; -3,74</t>
+          <t>-12,61; -4,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,15; -10,44</t>
+          <t>-17,79; -9,9</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 23,18</t>
+          <t>-16,64; 27,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,83; -2,18</t>
+          <t>-35,36; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,43; -31,52</t>
+          <t>-58,95; -32,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 5,09</t>
+          <t>-32,23; 6,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,28; -12,76</t>
+          <t>-43,62; -13,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,16; -28,42</t>
+          <t>-52,41; -28,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 9,48</t>
+          <t>-21,06; 7,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,4; -13,37</t>
+          <t>-36,52; -13,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,21; -34,96</t>
+          <t>-52,34; -34,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,77</t>
+          <t>-4,63; 0,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,2; -1,7</t>
+          <t>-6,91; -1,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,36; -10,89</t>
+          <t>-18,36; -11,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,54</t>
+          <t>-5,62; -0,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -3,35</t>
+          <t>-8,32; -3,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -11,16</t>
+          <t>-18,08; -11,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,75</t>
+          <t>-4,3; -0,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; -3,37</t>
+          <t>-7,0; -3,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,71; -12,26</t>
+          <t>-16,77; -12,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 2,49</t>
+          <t>-13,61; 2,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -5,56</t>
+          <t>-20,73; -5,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,64; -35,46</t>
+          <t>-56,59; -35,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -1,67</t>
+          <t>-16,9; -2,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,37; -10,84</t>
+          <t>-24,99; -10,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,26; -36,64</t>
+          <t>-55,04; -36,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -2,41</t>
+          <t>-12,85; -2,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,81; -10,75</t>
+          <t>-21,05; -10,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -39,21</t>
+          <t>-51,82; -38,76</t>
         </is>
       </c>
     </row>
